--- a/GlobalConfig.xlsx
+++ b/GlobalConfig.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" sheetId="1" r:id="rId4"/>
+    <sheet name="Global" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -40,52 +43,46 @@
     <t>1</t>
   </si>
   <si>
-    <t>heroMaxHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 英雄血量上限</t>
-  </si>
-  <si>
-    <t>99999999</t>
-  </si>
-  <si>
-    <t>heroMaxMP</t>
-  </si>
-  <si>
-    <t>英雄蓝量上限</t>
-  </si>
-  <si>
-    <t>heroMaxRage</t>
-  </si>
-  <si>
-    <t>英雄怒气值上限</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>heroMaxAtk</t>
-  </si>
-  <si>
-    <t>英雄攻击上限</t>
-  </si>
-  <si>
-    <t>heroDefName</t>
-  </si>
-  <si>
-    <t>英雄默认名字</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>无名</t>
-  </si>
-  <si>
-    <t>playerMaxName</t>
-  </si>
-  <si>
-    <t>角色名字字数上限</t>
+    <t>ArmorRatio</t>
+  </si>
+  <si>
+    <t>护甲减免系数</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DmgRatio</t>
+  </si>
+  <si>
+    <t>总伤害率系数</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>CritRatio</t>
+  </si>
+  <si>
+    <t>暴击率系数</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>CritIncRatio</t>
+  </si>
+  <si>
+    <t>暴击倍数加成系数</t>
+  </si>
+  <si>
+    <t>HealRatio</t>
+  </si>
+  <si>
+    <t>治疗量系数</t>
+  </si>
+  <si>
+    <t>7000</t>
   </si>
   <si>
     <t>10</t>
@@ -95,32 +92,178 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="SimSun"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,11 +273,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -202,70 +531,400 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -391,7 +1050,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,7 +1059,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -409,7 +1068,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -483,13 +1142,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -509,8 +1167,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -539,8 +1196,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -565,8 +1221,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -591,8 +1246,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,8 +1271,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -643,8 +1296,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -669,8 +1321,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -695,8 +1346,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,8 +1371,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,8 +1396,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,9 +1409,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -778,13 +1432,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -804,8 +1457,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -830,8 +1482,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -856,8 +1507,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -882,8 +1532,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -908,8 +1557,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -934,8 +1582,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,8 +1607,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -986,8 +1632,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,8 +1657,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1038,8 +1682,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,9 +1695,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1065,8 +1714,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1086,8 +1733,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,8 +1762,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1142,8 +1787,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1168,8 +1812,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,8 +1837,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,8 +1862,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1246,8 +1887,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1272,8 +1912,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,8 +1937,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,8 +1962,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1338,9 +1975,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1349,23 +1992,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="14.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8516" style="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1719" style="1" customWidth="1"/>
+    <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.675" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85" style="1" customWidth="1"/>
+    <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
     <col min="8" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
@@ -1375,147 +2021,143 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="57" customHeight="1">
+    <row r="2" ht="57" customHeight="1" spans="1:7">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="6">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1">
+    <row r="3" ht="14" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" t="s" s="8">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1">
+    <row r="4" ht="14" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" t="s" s="7">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="7">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" t="s" s="8">
+      <c r="F4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row r="5" ht="14" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" t="s" s="7">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="7">
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" t="s" s="8">
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s" s="8">
-        <v>11</v>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row r="6" ht="14" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s" s="7">
+      <c r="C6" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="6"/>
-      <c r="F6" t="s" s="7">
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s" s="7">
-        <v>16</v>
+      <c r="G6" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row r="7" ht="14" customHeight="1" spans="1:7">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s" s="7">
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" s="6"/>
-      <c r="F7" t="s" s="7">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s" s="7">
-        <v>11</v>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row r="8" ht="14" customHeight="1" spans="1:7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s" s="7">
+      <c r="C8" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="E8" s="6"/>
-      <c r="F8" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s" s="7">
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" t="s" s="9">
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s" s="7">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/GlobalConfig.xlsx
+++ b/GlobalConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -85,7 +85,31 @@
     <t>7000</t>
   </si>
   <si>
+    <t>EffectHitRatio</t>
+  </si>
+  <si>
+    <t>效果命中系数</t>
+  </si>
+  <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>EffectResistRatio</t>
+  </si>
+  <si>
+    <t>效果抵抗系数</t>
+  </si>
+  <si>
+    <t>ElementDmgRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型加成系数</t>
+  </si>
+  <si>
+    <t>ElementResRatio</t>
+  </si>
+  <si>
+    <t>各伤害类型抗性系数</t>
   </si>
 </sst>
 </file>
@@ -93,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -119,8 +143,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,69 +159,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,16 +175,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,25 +234,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,37 +302,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,145 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,26 +556,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,20 +606,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,26 +638,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +659,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +671,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1994,16 +2018,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="14.35" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.675" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.85" style="1" customWidth="1"/>
     <col min="6" max="7" width="19.175" style="1" customWidth="1"/>
@@ -2145,14 +2169,69 @@
     <row r="9" ht="14" customHeight="1" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GlobalConfig.xlsx
+++ b/GlobalConfig.xlsx
@@ -67,7 +67,7 @@
     <t>暴击率系数</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>4000</t>
   </si>
   <si>
     <t>CritIncRatio</t>
@@ -117,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -136,8 +136,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,10 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,16 +198,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,7 +228,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,7 +258,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +273,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -225,67 +286,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -302,19 +302,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,31 +392,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,127 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -585,23 +609,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,34 +653,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,133 +671,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2021,7 +2021,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="6"/>
